--- a/data/trans_orig/P44AS3-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P44AS3-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8533FB41-C535-4F2D-9881-F98C7AF04E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73CC5946-5B53-40BA-8A90-F260F0831F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9968D29A-A7D9-46BC-BBB9-9E15183D0E05}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{53827703-7999-45EF-904A-BBE9AFEAE45E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -145,10 +145,10 @@
     <t>27,74%</t>
   </si>
   <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
   </si>
   <si>
     <t>78,88%</t>
@@ -166,10 +166,10 @@
     <t>72,26%</t>
   </si>
   <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
   </si>
   <si>
     <t>29,36%</t>
@@ -193,7 +193,7 @@
     <t>12,39%</t>
   </si>
   <si>
-    <t>56,77%</t>
+    <t>57,32%</t>
   </si>
   <si>
     <t>70,64%</t>
@@ -214,7 +214,7 @@
     <t>68,37%</t>
   </si>
   <si>
-    <t>43,23%</t>
+    <t>42,68%</t>
   </si>
   <si>
     <t>87,61%</t>
@@ -265,7 +265,7 @@
     <t>12,82%</t>
   </si>
   <si>
-    <t>52,38%</t>
+    <t>54,81%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -274,13 +274,13 @@
     <t>8,33%</t>
   </si>
   <si>
-    <t>34,92%</t>
+    <t>42,04%</t>
   </si>
   <si>
     <t>87,18%</t>
   </si>
   <si>
-    <t>47,62%</t>
+    <t>45,19%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -289,7 +289,7 @@
     <t>91,67%</t>
   </si>
   <si>
-    <t>65,08%</t>
+    <t>57,96%</t>
   </si>
   <si>
     <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 3 en 2023 (Tasa respuesta: 0,64%)</t>
@@ -325,7 +325,7 @@
     <t>1,51%</t>
   </si>
   <si>
-    <t>7,86%</t>
+    <t>8,01%</t>
   </si>
   <si>
     <t>90,01%</t>
@@ -340,7 +340,7 @@
     <t>98,49%</t>
   </si>
   <si>
-    <t>92,14%</t>
+    <t>91,99%</t>
   </si>
   <si>
     <t>6,57%</t>
@@ -349,13 +349,13 @@
     <t>2,19%</t>
   </si>
   <si>
-    <t>11,69%</t>
+    <t>13,09%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>2,83%</t>
+    <t>2,74%</t>
   </si>
   <si>
     <t>93,43%</t>
@@ -364,13 +364,13 @@
     <t>97,81%</t>
   </si>
   <si>
-    <t>88,31%</t>
+    <t>86,91%</t>
   </si>
   <si>
     <t>99,59%</t>
   </si>
   <si>
-    <t>97,17%</t>
+    <t>97,26%</t>
   </si>
 </sst>
 </file>
@@ -782,7 +782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238BA84C-2EFD-45A0-8BCF-C94F6AC6D5A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526CEEFC-32BF-4A24-8D4D-562C5DCE5C53}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1947,7 +1947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E091768-3B67-4B62-B5C4-24EFEC0063F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB80EA38-EBCE-40FB-926F-610D32F89C73}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3106,7 +3106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0F02A4-F714-40D5-BD90-DDCCEFA2FF79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{506ECD70-24E7-486E-82C0-637E7218E1C5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P44AS3-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P44AS3-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73CC5946-5B53-40BA-8A90-F260F0831F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45AE79B6-3609-481D-AE68-3DB5EF8CA2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{53827703-7999-45EF-904A-BBE9AFEAE45E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F739DCCC-6B56-497E-A678-FA18B4571810}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -133,97 +133,97 @@
     <t>21,12%</t>
   </si>
   <si>
-    <t>80,96%</t>
+    <t>81,04%</t>
   </si>
   <si>
     <t>33,11%</t>
   </si>
   <si>
-    <t>72,37%</t>
+    <t>83,07%</t>
   </si>
   <si>
     <t>27,74%</t>
   </si>
   <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
   </si>
   <si>
     <t>78,88%</t>
   </si>
   <si>
-    <t>19,04%</t>
+    <t>18,96%</t>
   </si>
   <si>
     <t>66,89%</t>
   </si>
   <si>
-    <t>27,63%</t>
+    <t>16,93%</t>
   </si>
   <si>
     <t>72,26%</t>
   </si>
   <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
   </si>
   <si>
     <t>29,36%</t>
   </si>
   <si>
-    <t>72,22%</t>
+    <t>75,77%</t>
   </si>
   <si>
     <t>33,34%</t>
   </si>
   <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
   </si>
   <si>
     <t>31,63%</t>
   </si>
   <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
   </si>
   <si>
     <t>70,64%</t>
   </si>
   <si>
-    <t>27,78%</t>
+    <t>24,23%</t>
   </si>
   <si>
     <t>66,66%</t>
   </si>
   <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
   </si>
   <si>
     <t>68,37%</t>
   </si>
   <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 3 en 2015 (Tasa respuesta: 0,18%)</t>
+    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 3 en 2016 (Tasa respuesta: 0,18%)</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -247,7 +247,7 @@
     <t>14,37%</t>
   </si>
   <si>
-    <t>59,4%</t>
+    <t>66,02%</t>
   </si>
   <si>
     <t>73,38%</t>
@@ -259,13 +259,13 @@
     <t>85,63%</t>
   </si>
   <si>
-    <t>40,6%</t>
+    <t>33,98%</t>
   </si>
   <si>
     <t>12,82%</t>
   </si>
   <si>
-    <t>54,81%</t>
+    <t>64,67%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -274,13 +274,13 @@
     <t>8,33%</t>
   </si>
   <si>
-    <t>42,04%</t>
+    <t>34,24%</t>
   </si>
   <si>
     <t>87,18%</t>
   </si>
   <si>
-    <t>45,19%</t>
+    <t>35,33%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -289,7 +289,7 @@
     <t>91,67%</t>
   </si>
   <si>
-    <t>57,96%</t>
+    <t>65,76%</t>
   </si>
   <si>
     <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 3 en 2023 (Tasa respuesta: 0,64%)</t>
@@ -782,7 +782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526CEEFC-32BF-4A24-8D4D-562C5DCE5C53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25815816-D79E-4CC0-9BC1-70D15821F648}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1947,7 +1947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB80EA38-EBCE-40FB-926F-610D32F89C73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{290E6351-EF66-49A7-8831-2FF4D5EB39D8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3106,7 +3106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{506ECD70-24E7-486E-82C0-637E7218E1C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F4F2EA-A2EE-4C4B-8FE2-B17EDE0F34E6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
